--- a/Documentation/CTM-Compte_Agences-EDISuivi.xlsx
+++ b/Documentation/CTM-Compte_Agences-EDISuivi.xlsx
@@ -195,21 +195,12 @@
     <t>Steel2021@</t>
   </si>
   <si>
-    <t>MAJENCIA</t>
-  </si>
-  <si>
     <t>HAWORTH</t>
   </si>
   <si>
     <t>BENE</t>
   </si>
   <si>
-    <t>majencia</t>
-  </si>
-  <si>
-    <t>Majen2021@</t>
-  </si>
-  <si>
     <t>haworth</t>
   </si>
   <si>
@@ -220,6 +211,15 @@
   </si>
   <si>
     <t>Bene2021@</t>
+  </si>
+  <si>
+    <t>NOWYSTYL</t>
+  </si>
+  <si>
+    <t>nowystyl</t>
+  </si>
+  <si>
+    <t>Nowy2021@</t>
   </si>
 </sst>
 </file>
@@ -320,9 +320,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -354,11 +351,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -709,287 +709,287 @@
   <sheetData>
     <row r="1" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>95140</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>69680</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>13400</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>33530</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>31200</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>59000</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>57155</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,179 +1041,179 @@
   <sheetData>
     <row r="1" spans="1:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
